--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE\3-2\CSE-3203 (Algorithm 2)\Assignments\Backtracking Class Routine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE\3-2\CSE-3203 (Algorithm 2)\Assignments\backtracking-class-routine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FAC30F-A599-4D15-9215-9BD0EA1BD75C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0326297-8659-4B7A-BAC3-0DE96B93F750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="1005" windowWidth="21600" windowHeight="12435" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="615" windowWidth="21600" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UndergradCurriculum" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="239">
   <si>
     <t>Semester</t>
   </si>
@@ -541,9 +541,6 @@
   </si>
   <si>
     <t>8:30am-10:00am</t>
-  </si>
-  <si>
-    <t>8:00am-10:00pm;2:00pm-5:00pm</t>
   </si>
   <si>
     <t>8:30am-10:00;2:00pm-5:00pm</t>
@@ -854,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,6 +903,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -4402,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694935FF-5D2C-4930-BEB7-195D8DD864DD}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4737,10 +4735,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4760,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA299A5-3E2F-4ACE-990F-4B04208826C9}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4841,13 +4839,13 @@
         <v>158</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4942,7 +4940,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5044,16 +5042,16 @@
         <v>99</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5078,7 +5076,7 @@
         <v>103</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>167</v>
@@ -5129,14 +5127,17 @@
       <c r="A22" s="15" t="s">
         <v>110</v>
       </c>
+      <c r="C22" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="E22" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5163,7 +5164,7 @@
         <v>169</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>169</v>
@@ -5446,7 +5447,7 @@
         <v>103</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>155</v>
@@ -5481,7 +5482,7 @@
         <v>159</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>154</v>
@@ -7278,7 +7279,7 @@
     <row r="67" spans="1:3" ht="13.5" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
@@ -7287,7 +7288,7 @@
     <row r="68" spans="1:3" ht="13.5" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -7296,7 +7297,7 @@
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -7305,7 +7306,7 @@
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -7314,7 +7315,7 @@
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -7323,7 +7324,7 @@
     <row r="72" spans="1:3" ht="13.5" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
@@ -7332,7 +7333,7 @@
     <row r="73" spans="1:3" ht="13.5" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -7341,7 +7342,7 @@
     <row r="74" spans="1:3" ht="13.5" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
@@ -7368,7 +7369,7 @@
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" s="4">
         <v>1.5</v>
@@ -7377,7 +7378,7 @@
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" s="4">
         <v>1.5</v>
@@ -7386,7 +7387,7 @@
     <row r="79" spans="1:3" ht="13.5" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C79" s="4">
         <v>1.5</v>
@@ -7395,7 +7396,7 @@
     <row r="80" spans="1:3" ht="13.5" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C80" s="4">
         <v>1.5</v>
@@ -7404,7 +7405,7 @@
     <row r="81" spans="1:3" ht="13.5" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" s="4">
         <v>1.5</v>
@@ -7413,7 +7414,7 @@
     <row r="82" spans="1:3" ht="13.5" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" s="4">
         <v>1.5</v>
@@ -7422,7 +7423,7 @@
     <row r="83" spans="1:3" ht="13.5" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C83" s="4">
         <v>1.5</v>
@@ -7431,7 +7432,7 @@
     <row r="84" spans="1:3" ht="13.5" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" s="4">
         <v>1.5</v>
@@ -7458,7 +7459,7 @@
     <row r="87" spans="1:3" ht="13.5" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
@@ -7467,7 +7468,7 @@
     <row r="88" spans="1:3" ht="13.5" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
@@ -7485,7 +7486,7 @@
     <row r="90" spans="1:3" ht="13.5" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90" s="4">
         <v>3</v>
@@ -7494,7 +7495,7 @@
     <row r="91" spans="1:3" ht="13.5" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
@@ -7503,7 +7504,7 @@
     <row r="92" spans="1:3" ht="13.5" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -7521,7 +7522,7 @@
     <row r="94" spans="1:3" ht="13.5" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
@@ -7530,7 +7531,7 @@
     <row r="95" spans="1:3" ht="13.5" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
@@ -7539,7 +7540,7 @@
     <row r="96" spans="1:3" ht="13.5" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="7">
         <v>3</v>
@@ -7548,7 +7549,7 @@
     <row r="97" spans="1:3" ht="13.5" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C97" s="8">
         <v>3</v>
@@ -7557,7 +7558,7 @@
     <row r="98" spans="1:3" ht="13.5" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="7">
         <v>3</v>
@@ -7566,7 +7567,7 @@
     <row r="99" spans="1:3" ht="13.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="7">
         <v>3</v>
@@ -7575,7 +7576,7 @@
     <row r="100" spans="1:3" ht="13.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C100" s="7">
         <v>3</v>
@@ -7584,7 +7585,7 @@
     <row r="101" spans="1:3" ht="13.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C101" s="7">
         <v>3</v>
@@ -7593,7 +7594,7 @@
     <row r="102" spans="1:3" ht="13.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" s="7">
         <v>3</v>
@@ -7602,7 +7603,7 @@
     <row r="103" spans="1:3" ht="13.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" s="7">
         <v>3</v>
@@ -7611,7 +7612,7 @@
     <row r="104" spans="1:3" ht="13.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" s="7">
         <v>3</v>
@@ -7620,7 +7621,7 @@
     <row r="105" spans="1:3" ht="13.5" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C105" s="7">
         <v>3</v>
@@ -7629,7 +7630,7 @@
     <row r="106" spans="1:3" ht="13.5" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C106" s="7">
         <v>1.5</v>
@@ -7638,7 +7639,7 @@
     <row r="107" spans="1:3" ht="13.5" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C107" s="7">
         <v>1.5</v>
@@ -7647,7 +7648,7 @@
     <row r="108" spans="1:3" ht="13.5" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C108" s="7">
         <v>1.5</v>
@@ -7656,7 +7657,7 @@
     <row r="109" spans="1:3" ht="13.5" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C109" s="7">
         <v>1.5</v>
@@ -7665,7 +7666,7 @@
     <row r="110" spans="1:3" ht="13.5" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C110" s="7">
         <v>1.5</v>
@@ -7674,7 +7675,7 @@
     <row r="111" spans="1:3" ht="13.5" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C111" s="7">
         <v>1.5</v>
@@ -7683,7 +7684,7 @@
     <row r="112" spans="1:3" ht="13.5" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C112" s="7">
         <v>1.5</v>
@@ -7692,7 +7693,7 @@
     <row r="113" spans="1:3" ht="13.5" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C113" s="7">
         <v>1.5</v>
@@ -7701,7 +7702,7 @@
     <row r="114" spans="1:3" ht="13.5" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C114" s="7">
         <v>1.5</v>
@@ -7710,7 +7711,7 @@
     <row r="115" spans="1:3" ht="13.5" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C115" s="7">
         <v>1.5</v>
@@ -7719,7 +7720,7 @@
     <row r="116" spans="1:3" ht="13.5" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C116" s="7">
         <v>3</v>
@@ -7728,7 +7729,7 @@
     <row r="117" spans="1:3" ht="13.5" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" s="7">
         <v>3</v>
@@ -7737,7 +7738,7 @@
     <row r="118" spans="1:3" ht="13.5" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" s="7">
         <v>3</v>
@@ -7746,7 +7747,7 @@
     <row r="119" spans="1:3" ht="13.5" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C119" s="7">
         <v>3</v>
@@ -7755,7 +7756,7 @@
     <row r="120" spans="1:3" ht="13.5" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C120" s="7">
         <v>3</v>
@@ -7764,7 +7765,7 @@
     <row r="121" spans="1:3" ht="13.5" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C121" s="7">
         <v>3</v>
@@ -7773,7 +7774,7 @@
     <row r="122" spans="1:3" ht="13.5" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C122" s="7">
         <v>3</v>
@@ -7782,7 +7783,7 @@
     <row r="123" spans="1:3" ht="13.5" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C123" s="7">
         <v>3</v>
@@ -7791,7 +7792,7 @@
     <row r="124" spans="1:3" ht="13.5" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C124" s="7">
         <v>3</v>
@@ -7800,7 +7801,7 @@
     <row r="125" spans="1:3" ht="13.5" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C125" s="7">
         <v>3</v>
@@ -7809,7 +7810,7 @@
     <row r="126" spans="1:3" ht="13.5" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C126" s="7">
         <v>3</v>
@@ -7818,7 +7819,7 @@
     <row r="127" spans="1:3" ht="13.5" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C127" s="7">
         <v>3</v>
@@ -7827,7 +7828,7 @@
     <row r="128" spans="1:3" ht="13.5" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C128" s="7">
         <v>3</v>
@@ -8780,7 +8781,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
@@ -8805,7 +8806,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
@@ -8830,7 +8831,7 @@
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
@@ -8855,7 +8856,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
@@ -8868,22 +8869,22 @@
         <v>107</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="G21" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="13"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE\3-2\CSE-3203 (Algorithm 2)\Assignments\backtracking-class-routine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0326297-8659-4B7A-BAC3-0DE96B93F750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E1179A-8D12-4456-A360-2EB5B89BFCD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="615" windowWidth="21600" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UndergradCurriculum" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="240">
   <si>
     <t>Semester</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>9:00am-1:00pm;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>10:00am-11:30pm</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -4401,7 +4404,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4485,17 +4488,15 @@
         <v>77</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="C7" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="D7" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="23" t="s">
         <v>129</v>
       </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -4665,6 +4666,9 @@
       </c>
       <c r="D20" s="13" t="s">
         <v>143</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4759,7 +4763,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5014,7 +5018,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5128,7 +5132,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>238</v>
@@ -5145,7 +5149,9 @@
         <v>144</v>
       </c>
       <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="E23" s="24" t="s">
         <v>168</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE\3-2\CSE-3203 (Algorithm 2)\Assignments\backtracking-class-routine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E1179A-8D12-4456-A360-2EB5B89BFCD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C13FC5-8E1E-4F5B-A7A5-FB5D03869AAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UndergradCurriculum" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="239">
   <si>
     <t>Semester</t>
   </si>
@@ -543,12 +543,6 @@
     <t>8:30am-10:00am</t>
   </si>
   <si>
-    <t>8:30am-10:00;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>11:30am-1:00am;2:00pm-5:00pm</t>
-  </si>
-  <si>
     <t>CSE 4121</t>
   </si>
   <si>
@@ -751,6 +745,9 @@
   </si>
   <si>
     <t>10:00am-11:30pm</t>
+  </si>
+  <si>
+    <t>8:30am-10:00am;2:00pm-5:00pm</t>
   </si>
 </sst>
 </file>
@@ -4404,7 +4401,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4611,14 +4608,12 @@
         <v>133</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
@@ -4739,10 +4734,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4762,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA299A5-3E2F-4ACE-990F-4B04208826C9}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4944,7 +4939,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5018,7 +5013,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5046,16 +5041,16 @@
         <v>99</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5080,7 +5075,7 @@
         <v>103</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>167</v>
@@ -5135,13 +5130,13 @@
         <v>154</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5196,7 +5191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5266,8 +5263,8 @@
       <c r="A4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>169</v>
+      <c r="D4" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>156</v>
@@ -5411,7 +5408,7 @@
         <v>155</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
@@ -5452,8 +5449,8 @@
       <c r="A19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>170</v>
+      <c r="C19" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>155</v>
@@ -5488,7 +5485,7 @@
         <v>159</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>154</v>
@@ -5520,7 +5517,9 @@
         <v>144</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="E23" s="11" t="s">
         <v>155</v>
       </c>
@@ -7285,7 +7284,7 @@
     <row r="67" spans="1:3" ht="13.5" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
@@ -7294,7 +7293,7 @@
     <row r="68" spans="1:3" ht="13.5" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -7303,7 +7302,7 @@
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -7312,7 +7311,7 @@
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -7321,7 +7320,7 @@
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -7330,7 +7329,7 @@
     <row r="72" spans="1:3" ht="13.5" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
@@ -7339,7 +7338,7 @@
     <row r="73" spans="1:3" ht="13.5" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -7348,7 +7347,7 @@
     <row r="74" spans="1:3" ht="13.5" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
@@ -7375,7 +7374,7 @@
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C77" s="4">
         <v>1.5</v>
@@ -7384,7 +7383,7 @@
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" s="4">
         <v>1.5</v>
@@ -7393,7 +7392,7 @@
     <row r="79" spans="1:3" ht="13.5" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C79" s="4">
         <v>1.5</v>
@@ -7402,7 +7401,7 @@
     <row r="80" spans="1:3" ht="13.5" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C80" s="4">
         <v>1.5</v>
@@ -7411,7 +7410,7 @@
     <row r="81" spans="1:3" ht="13.5" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C81" s="4">
         <v>1.5</v>
@@ -7420,7 +7419,7 @@
     <row r="82" spans="1:3" ht="13.5" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C82" s="4">
         <v>1.5</v>
@@ -7429,7 +7428,7 @@
     <row r="83" spans="1:3" ht="13.5" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C83" s="4">
         <v>1.5</v>
@@ -7438,7 +7437,7 @@
     <row r="84" spans="1:3" ht="13.5" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C84" s="4">
         <v>1.5</v>
@@ -7465,7 +7464,7 @@
     <row r="87" spans="1:3" ht="13.5" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
@@ -7474,7 +7473,7 @@
     <row r="88" spans="1:3" ht="13.5" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
@@ -7492,7 +7491,7 @@
     <row r="90" spans="1:3" ht="13.5" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C90" s="4">
         <v>3</v>
@@ -7501,7 +7500,7 @@
     <row r="91" spans="1:3" ht="13.5" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
@@ -7510,7 +7509,7 @@
     <row r="92" spans="1:3" ht="13.5" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -7528,7 +7527,7 @@
     <row r="94" spans="1:3" ht="13.5" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
@@ -7537,7 +7536,7 @@
     <row r="95" spans="1:3" ht="13.5" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
@@ -7546,7 +7545,7 @@
     <row r="96" spans="1:3" ht="13.5" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C96" s="7">
         <v>3</v>
@@ -7555,7 +7554,7 @@
     <row r="97" spans="1:3" ht="13.5" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" s="8">
         <v>3</v>
@@ -7564,7 +7563,7 @@
     <row r="98" spans="1:3" ht="13.5" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" s="7">
         <v>3</v>
@@ -7573,7 +7572,7 @@
     <row r="99" spans="1:3" ht="13.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99" s="7">
         <v>3</v>
@@ -7582,7 +7581,7 @@
     <row r="100" spans="1:3" ht="13.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100" s="7">
         <v>3</v>
@@ -7591,7 +7590,7 @@
     <row r="101" spans="1:3" ht="13.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C101" s="7">
         <v>3</v>
@@ -7600,7 +7599,7 @@
     <row r="102" spans="1:3" ht="13.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" s="7">
         <v>3</v>
@@ -7609,7 +7608,7 @@
     <row r="103" spans="1:3" ht="13.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C103" s="7">
         <v>3</v>
@@ -7618,7 +7617,7 @@
     <row r="104" spans="1:3" ht="13.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C104" s="7">
         <v>3</v>
@@ -7627,7 +7626,7 @@
     <row r="105" spans="1:3" ht="13.5" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C105" s="7">
         <v>3</v>
@@ -7636,7 +7635,7 @@
     <row r="106" spans="1:3" ht="13.5" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C106" s="7">
         <v>1.5</v>
@@ -7645,7 +7644,7 @@
     <row r="107" spans="1:3" ht="13.5" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C107" s="7">
         <v>1.5</v>
@@ -7654,7 +7653,7 @@
     <row r="108" spans="1:3" ht="13.5" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C108" s="7">
         <v>1.5</v>
@@ -7663,7 +7662,7 @@
     <row r="109" spans="1:3" ht="13.5" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C109" s="7">
         <v>1.5</v>
@@ -7672,7 +7671,7 @@
     <row r="110" spans="1:3" ht="13.5" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C110" s="7">
         <v>1.5</v>
@@ -7681,7 +7680,7 @@
     <row r="111" spans="1:3" ht="13.5" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C111" s="7">
         <v>1.5</v>
@@ -7690,7 +7689,7 @@
     <row r="112" spans="1:3" ht="13.5" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C112" s="7">
         <v>1.5</v>
@@ -7699,7 +7698,7 @@
     <row r="113" spans="1:3" ht="13.5" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C113" s="7">
         <v>1.5</v>
@@ -7708,7 +7707,7 @@
     <row r="114" spans="1:3" ht="13.5" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C114" s="7">
         <v>1.5</v>
@@ -7717,7 +7716,7 @@
     <row r="115" spans="1:3" ht="13.5" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C115" s="7">
         <v>1.5</v>
@@ -7726,7 +7725,7 @@
     <row r="116" spans="1:3" ht="13.5" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C116" s="7">
         <v>3</v>
@@ -7735,7 +7734,7 @@
     <row r="117" spans="1:3" ht="13.5" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C117" s="7">
         <v>3</v>
@@ -7744,7 +7743,7 @@
     <row r="118" spans="1:3" ht="13.5" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C118" s="7">
         <v>3</v>
@@ -7753,7 +7752,7 @@
     <row r="119" spans="1:3" ht="13.5" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C119" s="7">
         <v>3</v>
@@ -7762,7 +7761,7 @@
     <row r="120" spans="1:3" ht="13.5" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C120" s="7">
         <v>3</v>
@@ -7771,7 +7770,7 @@
     <row r="121" spans="1:3" ht="13.5" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C121" s="7">
         <v>3</v>
@@ -7780,7 +7779,7 @@
     <row r="122" spans="1:3" ht="13.5" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C122" s="7">
         <v>3</v>
@@ -7789,7 +7788,7 @@
     <row r="123" spans="1:3" ht="13.5" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C123" s="7">
         <v>3</v>
@@ -7798,7 +7797,7 @@
     <row r="124" spans="1:3" ht="13.5" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C124" s="7">
         <v>3</v>
@@ -7807,7 +7806,7 @@
     <row r="125" spans="1:3" ht="13.5" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C125" s="7">
         <v>3</v>
@@ -7816,7 +7815,7 @@
     <row r="126" spans="1:3" ht="13.5" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C126" s="7">
         <v>3</v>
@@ -7825,7 +7824,7 @@
     <row r="127" spans="1:3" ht="13.5" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C127" s="7">
         <v>3</v>
@@ -7834,7 +7833,7 @@
     <row r="128" spans="1:3" ht="13.5" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C128" s="7">
         <v>3</v>
@@ -8787,7 +8786,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
@@ -8812,7 +8811,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
@@ -8837,7 +8836,7 @@
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
@@ -8862,7 +8861,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
@@ -8875,22 +8874,22 @@
         <v>107</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="13"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE\3-2\CSE-3203 (Algorithm 2)\Assignments\backtracking-class-routine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C13FC5-8E1E-4F5B-A7A5-FB5D03869AAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC2DC9-B23D-4B92-9FC2-F93AA716C718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UndergradCurriculum" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="232">
   <si>
     <t>Semester</t>
   </si>
@@ -507,15 +507,9 @@
     <t>2:00pm-3:30pm</t>
   </si>
   <si>
-    <t>8:30am-1:00am</t>
-  </si>
-  <si>
     <t>10:00am-11:30am</t>
   </si>
   <si>
-    <t>9:30am-1:00pm</t>
-  </si>
-  <si>
     <t>8:30am-1:00pm</t>
   </si>
   <si>
@@ -531,12 +525,6 @@
     <t>11:30am-1:00pm;2:00pm-5:00pm</t>
   </si>
   <si>
-    <t>9:00am-1:00pm</t>
-  </si>
-  <si>
-    <t>10:30am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
     <t>8:30am-1:00pm;2:00pm-5:00pm</t>
   </si>
   <si>
@@ -736,15 +724,6 @@
   </si>
   <si>
     <t>CHE 1114 Section 2</t>
-  </si>
-  <si>
-    <t>8:30am-12:00am;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>9:00am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>10:00am-11:30pm</t>
   </si>
   <si>
     <t>8:30am-10:00am;2:00pm-5:00pm</t>
@@ -754,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -812,11 +791,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -851,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,12 +861,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -902,8 +872,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4401,7 +4369,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4438,10 +4406,10 @@
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4449,10 +4417,10 @@
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4463,7 +4431,7 @@
       <c r="B4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4487,13 +4455,13 @@
       <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -4510,7 +4478,7 @@
       <c r="B9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4529,7 +4497,7 @@
       <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4554,7 +4522,7 @@
       <c r="B13" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -4587,7 +4555,7 @@
       <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -4622,7 +4590,7 @@
       <c r="B18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>139</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -4636,7 +4604,7 @@
       <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -4733,11 +4701,11 @@
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>234</v>
+      <c r="C24" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4757,42 +4725,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA299A5-3E2F-4ACE-990F-4B04208826C9}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -4800,386 +4768,324 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="G7" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G21" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="G22" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="F23" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>153</v>
+      <c r="F25" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5191,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5242,7 +5148,7 @@
         <v>156</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -5264,7 +5170,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>156</v>
@@ -5280,10 +5186,10 @@
         <v>75</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
@@ -5291,10 +5197,10 @@
         <v>77</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>153</v>
@@ -5316,16 +5222,16 @@
         <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>155</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
@@ -5338,7 +5244,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
@@ -5363,10 +5269,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>155</v>
@@ -5391,10 +5297,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
@@ -5402,13 +5308,13 @@
         <v>96</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>155</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
@@ -5416,13 +5322,13 @@
         <v>99</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>157</v>
@@ -5442,7 +5348,7 @@
         <v>153</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
@@ -5450,13 +5356,13 @@
         <v>103</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>155</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
@@ -5473,37 +5379,37 @@
         <v>153</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>162</v>
+      <c r="G21" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>162</v>
+      <c r="C22" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>153</v>
@@ -5524,10 +5430,10 @@
         <v>155</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
@@ -5535,13 +5441,13 @@
         <v>114</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>154</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
@@ -5549,10 +5455,10 @@
         <v>116</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1"/>
@@ -7284,7 +7190,7 @@
     <row r="67" spans="1:3" ht="13.5" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
@@ -7293,7 +7199,7 @@
     <row r="68" spans="1:3" ht="13.5" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -7302,7 +7208,7 @@
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -7311,7 +7217,7 @@
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -7320,7 +7226,7 @@
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -7329,7 +7235,7 @@
     <row r="72" spans="1:3" ht="13.5" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
@@ -7338,7 +7244,7 @@
     <row r="73" spans="1:3" ht="13.5" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -7347,7 +7253,7 @@
     <row r="74" spans="1:3" ht="13.5" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
@@ -7374,7 +7280,7 @@
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C77" s="4">
         <v>1.5</v>
@@ -7383,7 +7289,7 @@
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C78" s="4">
         <v>1.5</v>
@@ -7392,7 +7298,7 @@
     <row r="79" spans="1:3" ht="13.5" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C79" s="4">
         <v>1.5</v>
@@ -7401,7 +7307,7 @@
     <row r="80" spans="1:3" ht="13.5" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4">
         <v>1.5</v>
@@ -7410,7 +7316,7 @@
     <row r="81" spans="1:3" ht="13.5" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C81" s="4">
         <v>1.5</v>
@@ -7419,7 +7325,7 @@
     <row r="82" spans="1:3" ht="13.5" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C82" s="4">
         <v>1.5</v>
@@ -7428,7 +7334,7 @@
     <row r="83" spans="1:3" ht="13.5" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C83" s="4">
         <v>1.5</v>
@@ -7437,7 +7343,7 @@
     <row r="84" spans="1:3" ht="13.5" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C84" s="4">
         <v>1.5</v>
@@ -7464,7 +7370,7 @@
     <row r="87" spans="1:3" ht="13.5" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
@@ -7473,7 +7379,7 @@
     <row r="88" spans="1:3" ht="13.5" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
@@ -7491,7 +7397,7 @@
     <row r="90" spans="1:3" ht="13.5" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C90" s="4">
         <v>3</v>
@@ -7500,7 +7406,7 @@
     <row r="91" spans="1:3" ht="13.5" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
@@ -7509,7 +7415,7 @@
     <row r="92" spans="1:3" ht="13.5" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -7527,7 +7433,7 @@
     <row r="94" spans="1:3" ht="13.5" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
@@ -7536,7 +7442,7 @@
     <row r="95" spans="1:3" ht="13.5" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
@@ -7545,7 +7451,7 @@
     <row r="96" spans="1:3" ht="13.5" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C96" s="7">
         <v>3</v>
@@ -7554,7 +7460,7 @@
     <row r="97" spans="1:3" ht="13.5" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C97" s="8">
         <v>3</v>
@@ -7563,7 +7469,7 @@
     <row r="98" spans="1:3" ht="13.5" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C98" s="7">
         <v>3</v>
@@ -7572,7 +7478,7 @@
     <row r="99" spans="1:3" ht="13.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C99" s="7">
         <v>3</v>
@@ -7581,7 +7487,7 @@
     <row r="100" spans="1:3" ht="13.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C100" s="7">
         <v>3</v>
@@ -7590,7 +7496,7 @@
     <row r="101" spans="1:3" ht="13.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C101" s="7">
         <v>3</v>
@@ -7599,7 +7505,7 @@
     <row r="102" spans="1:3" ht="13.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C102" s="7">
         <v>3</v>
@@ -7608,7 +7514,7 @@
     <row r="103" spans="1:3" ht="13.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C103" s="7">
         <v>3</v>
@@ -7617,7 +7523,7 @@
     <row r="104" spans="1:3" ht="13.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C104" s="7">
         <v>3</v>
@@ -7626,7 +7532,7 @@
     <row r="105" spans="1:3" ht="13.5" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C105" s="7">
         <v>3</v>
@@ -7635,7 +7541,7 @@
     <row r="106" spans="1:3" ht="13.5" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C106" s="7">
         <v>1.5</v>
@@ -7644,7 +7550,7 @@
     <row r="107" spans="1:3" ht="13.5" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C107" s="7">
         <v>1.5</v>
@@ -7653,7 +7559,7 @@
     <row r="108" spans="1:3" ht="13.5" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C108" s="7">
         <v>1.5</v>
@@ -7662,7 +7568,7 @@
     <row r="109" spans="1:3" ht="13.5" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C109" s="7">
         <v>1.5</v>
@@ -7671,7 +7577,7 @@
     <row r="110" spans="1:3" ht="13.5" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C110" s="7">
         <v>1.5</v>
@@ -7680,7 +7586,7 @@
     <row r="111" spans="1:3" ht="13.5" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C111" s="7">
         <v>1.5</v>
@@ -7689,7 +7595,7 @@
     <row r="112" spans="1:3" ht="13.5" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C112" s="7">
         <v>1.5</v>
@@ -7698,7 +7604,7 @@
     <row r="113" spans="1:3" ht="13.5" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C113" s="7">
         <v>1.5</v>
@@ -7707,7 +7613,7 @@
     <row r="114" spans="1:3" ht="13.5" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C114" s="7">
         <v>1.5</v>
@@ -7716,7 +7622,7 @@
     <row r="115" spans="1:3" ht="13.5" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C115" s="7">
         <v>1.5</v>
@@ -7725,7 +7631,7 @@
     <row r="116" spans="1:3" ht="13.5" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C116" s="7">
         <v>3</v>
@@ -7734,7 +7640,7 @@
     <row r="117" spans="1:3" ht="13.5" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C117" s="7">
         <v>3</v>
@@ -7743,7 +7649,7 @@
     <row r="118" spans="1:3" ht="13.5" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C118" s="7">
         <v>3</v>
@@ -7752,7 +7658,7 @@
     <row r="119" spans="1:3" ht="13.5" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C119" s="7">
         <v>3</v>
@@ -7761,7 +7667,7 @@
     <row r="120" spans="1:3" ht="13.5" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C120" s="7">
         <v>3</v>
@@ -7770,7 +7676,7 @@
     <row r="121" spans="1:3" ht="13.5" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C121" s="7">
         <v>3</v>
@@ -7779,7 +7685,7 @@
     <row r="122" spans="1:3" ht="13.5" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C122" s="7">
         <v>3</v>
@@ -7788,7 +7694,7 @@
     <row r="123" spans="1:3" ht="13.5" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C123" s="7">
         <v>3</v>
@@ -7797,7 +7703,7 @@
     <row r="124" spans="1:3" ht="13.5" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C124" s="7">
         <v>3</v>
@@ -7806,7 +7712,7 @@
     <row r="125" spans="1:3" ht="13.5" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C125" s="7">
         <v>3</v>
@@ -7815,7 +7721,7 @@
     <row r="126" spans="1:3" ht="13.5" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C126" s="7">
         <v>3</v>
@@ -7824,7 +7730,7 @@
     <row r="127" spans="1:3" ht="13.5" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C127" s="7">
         <v>3</v>
@@ -7833,7 +7739,7 @@
     <row r="128" spans="1:3" ht="13.5" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C128" s="7">
         <v>3</v>
@@ -8786,7 +8692,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
@@ -8811,7 +8717,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
@@ -8836,7 +8742,7 @@
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
@@ -8861,7 +8767,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
@@ -8873,25 +8779,25 @@
       <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>230</v>
+      <c r="C21" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="20"/>
+        <v>228</v>
+      </c>
+      <c r="C22" s="18"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -8902,16 +8808,16 @@
         <v>112</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>155</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE\3-2\CSE-3203 (Algorithm 2)\Assignments\backtracking-class-routine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC2DC9-B23D-4B92-9FC2-F93AA716C718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41FEFC-8FB9-4C74-B1B1-D807CE3E91AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UndergradCurriculum" sheetId="1" r:id="rId1"/>
@@ -4725,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA299A5-3E2F-4ACE-990F-4B04208826C9}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4746,35 +4746,35 @@
         <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4782,13 +4782,13 @@
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4796,10 +4796,10 @@
       <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4812,10 +4812,10 @@
       <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4823,16 +4823,16 @@
       <c r="A7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>158</v>
       </c>
+      <c r="D7" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
       <c r="A8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4848,16 +4848,16 @@
       <c r="A9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>165</v>
       </c>
+      <c r="D9" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       <c r="A11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4878,16 +4878,16 @@
       <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="C12" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4895,16 +4895,16 @@
       <c r="A13" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="C13" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D13" s="11" t="s">
         <v>165</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4912,10 +4912,10 @@
       <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4923,10 +4923,10 @@
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4934,157 +4934,157 @@
       <c r="A16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>163</v>
       </c>
+      <c r="E16" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
         <v>99</v>
       </c>
+      <c r="C17" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
+      <c r="B18" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="C18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>153</v>
       </c>
+      <c r="D20" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="E20" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D21" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="E22" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="A1:G25"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5119,35 +5119,35 @@
         <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5155,13 +5155,13 @@
       <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5169,10 +5169,10 @@
       <c r="A4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5185,10 +5185,10 @@
       <c r="A6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5196,16 +5196,16 @@
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>158</v>
       </c>
+      <c r="D7" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5221,16 +5221,16 @@
       <c r="A9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>165</v>
       </c>
+      <c r="D9" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       <c r="A11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5251,16 +5251,16 @@
       <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="C12" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5268,16 +5268,16 @@
       <c r="A13" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="C13" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D13" s="11" t="s">
         <v>165</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5285,10 +5285,10 @@
       <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5296,10 +5296,10 @@
       <c r="A15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5307,169 +5307,169 @@
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>163</v>
       </c>
+      <c r="E16" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="C17" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="B18" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="C18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>153</v>
       </c>
+      <c r="D20" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="E20" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D21" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="E22" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -6448,7 +6448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE\3-2\CSE-3203 (Algorithm 2)\Assignments\backtracking-class-routine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41FEFC-8FB9-4C74-B1B1-D807CE3E91AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408AD3E8-9369-4F85-8608-7BEC5F09DB1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UndergradCurriculum" sheetId="1" r:id="rId1"/>
-    <sheet name="TeacherDetails" sheetId="2" r:id="rId2"/>
-    <sheet name="AssignedCourses" sheetId="8" r:id="rId3"/>
-    <sheet name="SampleInputWithSolution" sheetId="9" r:id="rId4"/>
-    <sheet name="ValidTimeSlots" sheetId="5" r:id="rId5"/>
-    <sheet name="UndergradCurriculumOptional" sheetId="6" r:id="rId6"/>
-    <sheet name="ValidTimeSlots - Sample" sheetId="7" r:id="rId7"/>
+    <sheet name="TeacherDetails" sheetId="2" r:id="rId1"/>
+    <sheet name="AssignedCourses" sheetId="8" r:id="rId2"/>
+    <sheet name="ValidTimeSlots" sheetId="5" r:id="rId3"/>
+    <sheet name="UndergradCurriculumOptional" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="223">
   <si>
     <t>Semester</t>
   </si>
@@ -519,15 +516,9 @@
     <t>8:30am-11:30am; 2:00pm-5:00pm</t>
   </si>
   <si>
-    <t>8:30am-11:30am</t>
-  </si>
-  <si>
     <t>11:30am-1:00pm;2:00pm-5:00pm</t>
   </si>
   <si>
-    <t>8:30am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
     <t>8:30am-10:00am</t>
   </si>
   <si>
@@ -697,27 +688,6 @@
   </si>
   <si>
     <t>CSE 4246</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>MAH</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>8:30am-11:30am;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>9:00am-12:0pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>MI</t>
   </si>
   <si>
     <t>CHE 1114 Section 1</t>
@@ -825,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,7 +832,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1086,1947 +1055,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1006"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="27" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A22" s="3">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A23" s="3">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A28" s="3">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A29" s="3">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A30" s="3">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A31" s="3">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A32" s="3">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="3">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="3">
-        <v>5</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="3">
-        <v>5</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="3">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="3">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="3">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="3">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="3">
-        <v>5</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="3">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="3">
-        <v>6</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="3">
-        <v>6</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="3">
-        <v>6</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A50" s="3">
-        <v>6</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A51" s="3">
-        <v>6</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A52" s="3">
-        <v>6</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A53" s="3">
-        <v>7</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A54" s="3">
-        <v>7</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A55" s="3">
-        <v>7</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A56" s="3">
-        <v>7</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A57" s="3">
-        <v>7</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A58" s="3">
-        <v>7</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A59" s="3">
-        <v>7</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A60" s="3">
-        <v>7</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A61" s="3">
-        <v>8</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A62" s="3">
-        <v>8</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A63" s="3">
-        <v>8</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A64" s="3">
-        <v>8</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="3">
-        <v>8</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A66" s="3">
-        <v>8</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="7"/>
-    </row>
-    <row r="103" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="7"/>
-    </row>
-    <row r="111" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="124" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="7"/>
-    </row>
-    <row r="127" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
-    <row r="514" ht="13.5" customHeight="1"/>
-    <row r="515" ht="13.5" customHeight="1"/>
-    <row r="516" ht="13.5" customHeight="1"/>
-    <row r="517" ht="13.5" customHeight="1"/>
-    <row r="518" ht="13.5" customHeight="1"/>
-    <row r="519" ht="13.5" customHeight="1"/>
-    <row r="520" ht="13.5" customHeight="1"/>
-    <row r="521" ht="13.5" customHeight="1"/>
-    <row r="522" ht="13.5" customHeight="1"/>
-    <row r="523" ht="13.5" customHeight="1"/>
-    <row r="524" ht="13.5" customHeight="1"/>
-    <row r="525" ht="13.5" customHeight="1"/>
-    <row r="526" ht="13.5" customHeight="1"/>
-    <row r="527" ht="13.5" customHeight="1"/>
-    <row r="528" ht="13.5" customHeight="1"/>
-    <row r="529" ht="13.5" customHeight="1"/>
-    <row r="530" ht="13.5" customHeight="1"/>
-    <row r="531" ht="13.5" customHeight="1"/>
-    <row r="532" ht="13.5" customHeight="1"/>
-    <row r="533" ht="13.5" customHeight="1"/>
-    <row r="534" ht="13.5" customHeight="1"/>
-    <row r="535" ht="13.5" customHeight="1"/>
-    <row r="536" ht="13.5" customHeight="1"/>
-    <row r="537" ht="13.5" customHeight="1"/>
-    <row r="538" ht="13.5" customHeight="1"/>
-    <row r="539" ht="13.5" customHeight="1"/>
-    <row r="540" ht="13.5" customHeight="1"/>
-    <row r="541" ht="13.5" customHeight="1"/>
-    <row r="542" ht="13.5" customHeight="1"/>
-    <row r="543" ht="13.5" customHeight="1"/>
-    <row r="544" ht="13.5" customHeight="1"/>
-    <row r="545" ht="13.5" customHeight="1"/>
-    <row r="546" ht="13.5" customHeight="1"/>
-    <row r="547" ht="13.5" customHeight="1"/>
-    <row r="548" ht="13.5" customHeight="1"/>
-    <row r="549" ht="13.5" customHeight="1"/>
-    <row r="550" ht="13.5" customHeight="1"/>
-    <row r="551" ht="13.5" customHeight="1"/>
-    <row r="552" ht="13.5" customHeight="1"/>
-    <row r="553" ht="13.5" customHeight="1"/>
-    <row r="554" ht="13.5" customHeight="1"/>
-    <row r="555" ht="13.5" customHeight="1"/>
-    <row r="556" ht="13.5" customHeight="1"/>
-    <row r="557" ht="13.5" customHeight="1"/>
-    <row r="558" ht="13.5" customHeight="1"/>
-    <row r="559" ht="13.5" customHeight="1"/>
-    <row r="560" ht="13.5" customHeight="1"/>
-    <row r="561" ht="13.5" customHeight="1"/>
-    <row r="562" ht="13.5" customHeight="1"/>
-    <row r="563" ht="13.5" customHeight="1"/>
-    <row r="564" ht="13.5" customHeight="1"/>
-    <row r="565" ht="13.5" customHeight="1"/>
-    <row r="566" ht="13.5" customHeight="1"/>
-    <row r="567" ht="13.5" customHeight="1"/>
-    <row r="568" ht="13.5" customHeight="1"/>
-    <row r="569" ht="13.5" customHeight="1"/>
-    <row r="570" ht="13.5" customHeight="1"/>
-    <row r="571" ht="13.5" customHeight="1"/>
-    <row r="572" ht="13.5" customHeight="1"/>
-    <row r="573" ht="13.5" customHeight="1"/>
-    <row r="574" ht="13.5" customHeight="1"/>
-    <row r="575" ht="13.5" customHeight="1"/>
-    <row r="576" ht="13.5" customHeight="1"/>
-    <row r="577" ht="13.5" customHeight="1"/>
-    <row r="578" ht="13.5" customHeight="1"/>
-    <row r="579" ht="13.5" customHeight="1"/>
-    <row r="580" ht="13.5" customHeight="1"/>
-    <row r="581" ht="13.5" customHeight="1"/>
-    <row r="582" ht="13.5" customHeight="1"/>
-    <row r="583" ht="13.5" customHeight="1"/>
-    <row r="584" ht="13.5" customHeight="1"/>
-    <row r="585" ht="13.5" customHeight="1"/>
-    <row r="586" ht="13.5" customHeight="1"/>
-    <row r="587" ht="13.5" customHeight="1"/>
-    <row r="588" ht="13.5" customHeight="1"/>
-    <row r="589" ht="13.5" customHeight="1"/>
-    <row r="590" ht="13.5" customHeight="1"/>
-    <row r="591" ht="13.5" customHeight="1"/>
-    <row r="592" ht="13.5" customHeight="1"/>
-    <row r="593" ht="13.5" customHeight="1"/>
-    <row r="594" ht="13.5" customHeight="1"/>
-    <row r="595" ht="13.5" customHeight="1"/>
-    <row r="596" ht="13.5" customHeight="1"/>
-    <row r="597" ht="13.5" customHeight="1"/>
-    <row r="598" ht="13.5" customHeight="1"/>
-    <row r="599" ht="13.5" customHeight="1"/>
-    <row r="600" ht="13.5" customHeight="1"/>
-    <row r="601" ht="13.5" customHeight="1"/>
-    <row r="602" ht="13.5" customHeight="1"/>
-    <row r="603" ht="13.5" customHeight="1"/>
-    <row r="604" ht="13.5" customHeight="1"/>
-    <row r="605" ht="13.5" customHeight="1"/>
-    <row r="606" ht="13.5" customHeight="1"/>
-    <row r="607" ht="13.5" customHeight="1"/>
-    <row r="608" ht="13.5" customHeight="1"/>
-    <row r="609" ht="13.5" customHeight="1"/>
-    <row r="610" ht="13.5" customHeight="1"/>
-    <row r="611" ht="13.5" customHeight="1"/>
-    <row r="612" ht="13.5" customHeight="1"/>
-    <row r="613" ht="13.5" customHeight="1"/>
-    <row r="614" ht="13.5" customHeight="1"/>
-    <row r="615" ht="13.5" customHeight="1"/>
-    <row r="616" ht="13.5" customHeight="1"/>
-    <row r="617" ht="13.5" customHeight="1"/>
-    <row r="618" ht="13.5" customHeight="1"/>
-    <row r="619" ht="13.5" customHeight="1"/>
-    <row r="620" ht="13.5" customHeight="1"/>
-    <row r="621" ht="13.5" customHeight="1"/>
-    <row r="622" ht="13.5" customHeight="1"/>
-    <row r="623" ht="13.5" customHeight="1"/>
-    <row r="624" ht="13.5" customHeight="1"/>
-    <row r="625" ht="13.5" customHeight="1"/>
-    <row r="626" ht="13.5" customHeight="1"/>
-    <row r="627" ht="13.5" customHeight="1"/>
-    <row r="628" ht="13.5" customHeight="1"/>
-    <row r="629" ht="13.5" customHeight="1"/>
-    <row r="630" ht="13.5" customHeight="1"/>
-    <row r="631" ht="13.5" customHeight="1"/>
-    <row r="632" ht="13.5" customHeight="1"/>
-    <row r="633" ht="13.5" customHeight="1"/>
-    <row r="634" ht="13.5" customHeight="1"/>
-    <row r="635" ht="13.5" customHeight="1"/>
-    <row r="636" ht="13.5" customHeight="1"/>
-    <row r="637" ht="13.5" customHeight="1"/>
-    <row r="638" ht="13.5" customHeight="1"/>
-    <row r="639" ht="13.5" customHeight="1"/>
-    <row r="640" ht="13.5" customHeight="1"/>
-    <row r="641" ht="13.5" customHeight="1"/>
-    <row r="642" ht="13.5" customHeight="1"/>
-    <row r="643" ht="13.5" customHeight="1"/>
-    <row r="644" ht="13.5" customHeight="1"/>
-    <row r="645" ht="13.5" customHeight="1"/>
-    <row r="646" ht="13.5" customHeight="1"/>
-    <row r="647" ht="13.5" customHeight="1"/>
-    <row r="648" ht="13.5" customHeight="1"/>
-    <row r="649" ht="13.5" customHeight="1"/>
-    <row r="650" ht="13.5" customHeight="1"/>
-    <row r="651" ht="13.5" customHeight="1"/>
-    <row r="652" ht="13.5" customHeight="1"/>
-    <row r="653" ht="13.5" customHeight="1"/>
-    <row r="654" ht="13.5" customHeight="1"/>
-    <row r="655" ht="13.5" customHeight="1"/>
-    <row r="656" ht="13.5" customHeight="1"/>
-    <row r="657" ht="13.5" customHeight="1"/>
-    <row r="658" ht="13.5" customHeight="1"/>
-    <row r="659" ht="13.5" customHeight="1"/>
-    <row r="660" ht="13.5" customHeight="1"/>
-    <row r="661" ht="13.5" customHeight="1"/>
-    <row r="662" ht="13.5" customHeight="1"/>
-    <row r="663" ht="13.5" customHeight="1"/>
-    <row r="664" ht="13.5" customHeight="1"/>
-    <row r="665" ht="13.5" customHeight="1"/>
-    <row r="666" ht="13.5" customHeight="1"/>
-    <row r="667" ht="13.5" customHeight="1"/>
-    <row r="668" ht="13.5" customHeight="1"/>
-    <row r="669" ht="13.5" customHeight="1"/>
-    <row r="670" ht="13.5" customHeight="1"/>
-    <row r="671" ht="13.5" customHeight="1"/>
-    <row r="672" ht="13.5" customHeight="1"/>
-    <row r="673" ht="13.5" customHeight="1"/>
-    <row r="674" ht="13.5" customHeight="1"/>
-    <row r="675" ht="13.5" customHeight="1"/>
-    <row r="676" ht="13.5" customHeight="1"/>
-    <row r="677" ht="13.5" customHeight="1"/>
-    <row r="678" ht="13.5" customHeight="1"/>
-    <row r="679" ht="13.5" customHeight="1"/>
-    <row r="680" ht="13.5" customHeight="1"/>
-    <row r="681" ht="13.5" customHeight="1"/>
-    <row r="682" ht="13.5" customHeight="1"/>
-    <row r="683" ht="13.5" customHeight="1"/>
-    <row r="684" ht="13.5" customHeight="1"/>
-    <row r="685" ht="13.5" customHeight="1"/>
-    <row r="686" ht="13.5" customHeight="1"/>
-    <row r="687" ht="13.5" customHeight="1"/>
-    <row r="688" ht="13.5" customHeight="1"/>
-    <row r="689" ht="13.5" customHeight="1"/>
-    <row r="690" ht="13.5" customHeight="1"/>
-    <row r="691" ht="13.5" customHeight="1"/>
-    <row r="692" ht="13.5" customHeight="1"/>
-    <row r="693" ht="13.5" customHeight="1"/>
-    <row r="694" ht="13.5" customHeight="1"/>
-    <row r="695" ht="13.5" customHeight="1"/>
-    <row r="696" ht="13.5" customHeight="1"/>
-    <row r="697" ht="13.5" customHeight="1"/>
-    <row r="698" ht="13.5" customHeight="1"/>
-    <row r="699" ht="13.5" customHeight="1"/>
-    <row r="700" ht="13.5" customHeight="1"/>
-    <row r="701" ht="13.5" customHeight="1"/>
-    <row r="702" ht="13.5" customHeight="1"/>
-    <row r="703" ht="13.5" customHeight="1"/>
-    <row r="704" ht="13.5" customHeight="1"/>
-    <row r="705" ht="13.5" customHeight="1"/>
-    <row r="706" ht="13.5" customHeight="1"/>
-    <row r="707" ht="13.5" customHeight="1"/>
-    <row r="708" ht="13.5" customHeight="1"/>
-    <row r="709" ht="13.5" customHeight="1"/>
-    <row r="710" ht="13.5" customHeight="1"/>
-    <row r="711" ht="13.5" customHeight="1"/>
-    <row r="712" ht="13.5" customHeight="1"/>
-    <row r="713" ht="13.5" customHeight="1"/>
-    <row r="714" ht="13.5" customHeight="1"/>
-    <row r="715" ht="13.5" customHeight="1"/>
-    <row r="716" ht="13.5" customHeight="1"/>
-    <row r="717" ht="13.5" customHeight="1"/>
-    <row r="718" ht="13.5" customHeight="1"/>
-    <row r="719" ht="13.5" customHeight="1"/>
-    <row r="720" ht="13.5" customHeight="1"/>
-    <row r="721" ht="13.5" customHeight="1"/>
-    <row r="722" ht="13.5" customHeight="1"/>
-    <row r="723" ht="13.5" customHeight="1"/>
-    <row r="724" ht="13.5" customHeight="1"/>
-    <row r="725" ht="13.5" customHeight="1"/>
-    <row r="726" ht="13.5" customHeight="1"/>
-    <row r="727" ht="13.5" customHeight="1"/>
-    <row r="728" ht="13.5" customHeight="1"/>
-    <row r="729" ht="13.5" customHeight="1"/>
-    <row r="730" ht="13.5" customHeight="1"/>
-    <row r="731" ht="13.5" customHeight="1"/>
-    <row r="732" ht="13.5" customHeight="1"/>
-    <row r="733" ht="13.5" customHeight="1"/>
-    <row r="734" ht="13.5" customHeight="1"/>
-    <row r="735" ht="13.5" customHeight="1"/>
-    <row r="736" ht="13.5" customHeight="1"/>
-    <row r="737" ht="13.5" customHeight="1"/>
-    <row r="738" ht="13.5" customHeight="1"/>
-    <row r="739" ht="13.5" customHeight="1"/>
-    <row r="740" ht="13.5" customHeight="1"/>
-    <row r="741" ht="13.5" customHeight="1"/>
-    <row r="742" ht="13.5" customHeight="1"/>
-    <row r="743" ht="13.5" customHeight="1"/>
-    <row r="744" ht="13.5" customHeight="1"/>
-    <row r="745" ht="13.5" customHeight="1"/>
-    <row r="746" ht="13.5" customHeight="1"/>
-    <row r="747" ht="13.5" customHeight="1"/>
-    <row r="748" ht="13.5" customHeight="1"/>
-    <row r="749" ht="13.5" customHeight="1"/>
-    <row r="750" ht="13.5" customHeight="1"/>
-    <row r="751" ht="13.5" customHeight="1"/>
-    <row r="752" ht="13.5" customHeight="1"/>
-    <row r="753" ht="13.5" customHeight="1"/>
-    <row r="754" ht="13.5" customHeight="1"/>
-    <row r="755" ht="13.5" customHeight="1"/>
-    <row r="756" ht="13.5" customHeight="1"/>
-    <row r="757" ht="13.5" customHeight="1"/>
-    <row r="758" ht="13.5" customHeight="1"/>
-    <row r="759" ht="13.5" customHeight="1"/>
-    <row r="760" ht="13.5" customHeight="1"/>
-    <row r="761" ht="13.5" customHeight="1"/>
-    <row r="762" ht="13.5" customHeight="1"/>
-    <row r="763" ht="13.5" customHeight="1"/>
-    <row r="764" ht="13.5" customHeight="1"/>
-    <row r="765" ht="13.5" customHeight="1"/>
-    <row r="766" ht="13.5" customHeight="1"/>
-    <row r="767" ht="13.5" customHeight="1"/>
-    <row r="768" ht="13.5" customHeight="1"/>
-    <row r="769" ht="13.5" customHeight="1"/>
-    <row r="770" ht="13.5" customHeight="1"/>
-    <row r="771" ht="13.5" customHeight="1"/>
-    <row r="772" ht="13.5" customHeight="1"/>
-    <row r="773" ht="13.5" customHeight="1"/>
-    <row r="774" ht="13.5" customHeight="1"/>
-    <row r="775" ht="13.5" customHeight="1"/>
-    <row r="776" ht="13.5" customHeight="1"/>
-    <row r="777" ht="13.5" customHeight="1"/>
-    <row r="778" ht="13.5" customHeight="1"/>
-    <row r="779" ht="13.5" customHeight="1"/>
-    <row r="780" ht="13.5" customHeight="1"/>
-    <row r="781" ht="13.5" customHeight="1"/>
-    <row r="782" ht="13.5" customHeight="1"/>
-    <row r="783" ht="13.5" customHeight="1"/>
-    <row r="784" ht="13.5" customHeight="1"/>
-    <row r="785" ht="13.5" customHeight="1"/>
-    <row r="786" ht="13.5" customHeight="1"/>
-    <row r="787" ht="13.5" customHeight="1"/>
-    <row r="788" ht="13.5" customHeight="1"/>
-    <row r="789" ht="13.5" customHeight="1"/>
-    <row r="790" ht="13.5" customHeight="1"/>
-    <row r="791" ht="13.5" customHeight="1"/>
-    <row r="792" ht="13.5" customHeight="1"/>
-    <row r="793" ht="13.5" customHeight="1"/>
-    <row r="794" ht="13.5" customHeight="1"/>
-    <row r="795" ht="13.5" customHeight="1"/>
-    <row r="796" ht="13.5" customHeight="1"/>
-    <row r="797" ht="13.5" customHeight="1"/>
-    <row r="798" ht="13.5" customHeight="1"/>
-    <row r="799" ht="13.5" customHeight="1"/>
-    <row r="800" ht="13.5" customHeight="1"/>
-    <row r="801" ht="13.5" customHeight="1"/>
-    <row r="802" ht="13.5" customHeight="1"/>
-    <row r="803" ht="13.5" customHeight="1"/>
-    <row r="804" ht="13.5" customHeight="1"/>
-    <row r="805" ht="13.5" customHeight="1"/>
-    <row r="806" ht="13.5" customHeight="1"/>
-    <row r="807" ht="13.5" customHeight="1"/>
-    <row r="808" ht="13.5" customHeight="1"/>
-    <row r="809" ht="13.5" customHeight="1"/>
-    <row r="810" ht="13.5" customHeight="1"/>
-    <row r="811" ht="13.5" customHeight="1"/>
-    <row r="812" ht="13.5" customHeight="1"/>
-    <row r="813" ht="13.5" customHeight="1"/>
-    <row r="814" ht="13.5" customHeight="1"/>
-    <row r="815" ht="13.5" customHeight="1"/>
-    <row r="816" ht="13.5" customHeight="1"/>
-    <row r="817" ht="13.5" customHeight="1"/>
-    <row r="818" ht="13.5" customHeight="1"/>
-    <row r="819" ht="13.5" customHeight="1"/>
-    <row r="820" ht="13.5" customHeight="1"/>
-    <row r="821" ht="13.5" customHeight="1"/>
-    <row r="822" ht="13.5" customHeight="1"/>
-    <row r="823" ht="13.5" customHeight="1"/>
-    <row r="824" ht="13.5" customHeight="1"/>
-    <row r="825" ht="13.5" customHeight="1"/>
-    <row r="826" ht="13.5" customHeight="1"/>
-    <row r="827" ht="13.5" customHeight="1"/>
-    <row r="828" ht="13.5" customHeight="1"/>
-    <row r="829" ht="13.5" customHeight="1"/>
-    <row r="830" ht="13.5" customHeight="1"/>
-    <row r="831" ht="13.5" customHeight="1"/>
-    <row r="832" ht="13.5" customHeight="1"/>
-    <row r="833" ht="13.5" customHeight="1"/>
-    <row r="834" ht="13.5" customHeight="1"/>
-    <row r="835" ht="13.5" customHeight="1"/>
-    <row r="836" ht="13.5" customHeight="1"/>
-    <row r="837" ht="13.5" customHeight="1"/>
-    <row r="838" ht="13.5" customHeight="1"/>
-    <row r="839" ht="13.5" customHeight="1"/>
-    <row r="840" ht="13.5" customHeight="1"/>
-    <row r="841" ht="13.5" customHeight="1"/>
-    <row r="842" ht="13.5" customHeight="1"/>
-    <row r="843" ht="13.5" customHeight="1"/>
-    <row r="844" ht="13.5" customHeight="1"/>
-    <row r="845" ht="13.5" customHeight="1"/>
-    <row r="846" ht="13.5" customHeight="1"/>
-    <row r="847" ht="13.5" customHeight="1"/>
-    <row r="848" ht="13.5" customHeight="1"/>
-    <row r="849" ht="13.5" customHeight="1"/>
-    <row r="850" ht="13.5" customHeight="1"/>
-    <row r="851" ht="13.5" customHeight="1"/>
-    <row r="852" ht="13.5" customHeight="1"/>
-    <row r="853" ht="13.5" customHeight="1"/>
-    <row r="854" ht="13.5" customHeight="1"/>
-    <row r="855" ht="13.5" customHeight="1"/>
-    <row r="856" ht="13.5" customHeight="1"/>
-    <row r="857" ht="13.5" customHeight="1"/>
-    <row r="858" ht="13.5" customHeight="1"/>
-    <row r="859" ht="13.5" customHeight="1"/>
-    <row r="860" ht="13.5" customHeight="1"/>
-    <row r="861" ht="13.5" customHeight="1"/>
-    <row r="862" ht="13.5" customHeight="1"/>
-    <row r="863" ht="13.5" customHeight="1"/>
-    <row r="864" ht="13.5" customHeight="1"/>
-    <row r="865" ht="13.5" customHeight="1"/>
-    <row r="866" ht="13.5" customHeight="1"/>
-    <row r="867" ht="13.5" customHeight="1"/>
-    <row r="868" ht="13.5" customHeight="1"/>
-    <row r="869" ht="13.5" customHeight="1"/>
-    <row r="870" ht="13.5" customHeight="1"/>
-    <row r="871" ht="13.5" customHeight="1"/>
-    <row r="872" ht="13.5" customHeight="1"/>
-    <row r="873" ht="13.5" customHeight="1"/>
-    <row r="874" ht="13.5" customHeight="1"/>
-    <row r="875" ht="13.5" customHeight="1"/>
-    <row r="876" ht="13.5" customHeight="1"/>
-    <row r="877" ht="13.5" customHeight="1"/>
-    <row r="878" ht="13.5" customHeight="1"/>
-    <row r="879" ht="13.5" customHeight="1"/>
-    <row r="880" ht="13.5" customHeight="1"/>
-    <row r="881" ht="13.5" customHeight="1"/>
-    <row r="882" ht="13.5" customHeight="1"/>
-    <row r="883" ht="13.5" customHeight="1"/>
-    <row r="884" ht="13.5" customHeight="1"/>
-    <row r="885" ht="13.5" customHeight="1"/>
-    <row r="886" ht="13.5" customHeight="1"/>
-    <row r="887" ht="13.5" customHeight="1"/>
-    <row r="888" ht="13.5" customHeight="1"/>
-    <row r="889" ht="13.5" customHeight="1"/>
-    <row r="890" ht="13.5" customHeight="1"/>
-    <row r="891" ht="13.5" customHeight="1"/>
-    <row r="892" ht="13.5" customHeight="1"/>
-    <row r="893" ht="13.5" customHeight="1"/>
-    <row r="894" ht="13.5" customHeight="1"/>
-    <row r="895" ht="13.5" customHeight="1"/>
-    <row r="896" ht="13.5" customHeight="1"/>
-    <row r="897" ht="13.5" customHeight="1"/>
-    <row r="898" ht="13.5" customHeight="1"/>
-    <row r="899" ht="13.5" customHeight="1"/>
-    <row r="900" ht="13.5" customHeight="1"/>
-    <row r="901" ht="13.5" customHeight="1"/>
-    <row r="902" ht="13.5" customHeight="1"/>
-    <row r="903" ht="13.5" customHeight="1"/>
-    <row r="904" ht="13.5" customHeight="1"/>
-    <row r="905" ht="13.5" customHeight="1"/>
-    <row r="906" ht="13.5" customHeight="1"/>
-    <row r="907" ht="13.5" customHeight="1"/>
-    <row r="908" ht="13.5" customHeight="1"/>
-    <row r="909" ht="13.5" customHeight="1"/>
-    <row r="910" ht="13.5" customHeight="1"/>
-    <row r="911" ht="13.5" customHeight="1"/>
-    <row r="912" ht="13.5" customHeight="1"/>
-    <row r="913" ht="13.5" customHeight="1"/>
-    <row r="914" ht="13.5" customHeight="1"/>
-    <row r="915" ht="13.5" customHeight="1"/>
-    <row r="916" ht="13.5" customHeight="1"/>
-    <row r="917" ht="13.5" customHeight="1"/>
-    <row r="918" ht="13.5" customHeight="1"/>
-    <row r="919" ht="13.5" customHeight="1"/>
-    <row r="920" ht="13.5" customHeight="1"/>
-    <row r="921" ht="13.5" customHeight="1"/>
-    <row r="922" ht="13.5" customHeight="1"/>
-    <row r="923" ht="13.5" customHeight="1"/>
-    <row r="924" ht="13.5" customHeight="1"/>
-    <row r="925" ht="13.5" customHeight="1"/>
-    <row r="926" ht="13.5" customHeight="1"/>
-    <row r="927" ht="13.5" customHeight="1"/>
-    <row r="928" ht="13.5" customHeight="1"/>
-    <row r="929" ht="13.5" customHeight="1"/>
-    <row r="930" ht="13.5" customHeight="1"/>
-    <row r="931" ht="13.5" customHeight="1"/>
-    <row r="932" ht="13.5" customHeight="1"/>
-    <row r="933" ht="13.5" customHeight="1"/>
-    <row r="934" ht="13.5" customHeight="1"/>
-    <row r="935" ht="13.5" customHeight="1"/>
-    <row r="936" ht="13.5" customHeight="1"/>
-    <row r="937" ht="13.5" customHeight="1"/>
-    <row r="938" ht="13.5" customHeight="1"/>
-    <row r="939" ht="13.5" customHeight="1"/>
-    <row r="940" ht="13.5" customHeight="1"/>
-    <row r="941" ht="13.5" customHeight="1"/>
-    <row r="942" ht="13.5" customHeight="1"/>
-    <row r="943" ht="13.5" customHeight="1"/>
-    <row r="944" ht="13.5" customHeight="1"/>
-    <row r="945" ht="13.5" customHeight="1"/>
-    <row r="946" ht="13.5" customHeight="1"/>
-    <row r="947" ht="13.5" customHeight="1"/>
-    <row r="948" ht="13.5" customHeight="1"/>
-    <row r="949" ht="13.5" customHeight="1"/>
-    <row r="950" ht="13.5" customHeight="1"/>
-    <row r="951" ht="13.5" customHeight="1"/>
-    <row r="952" ht="13.5" customHeight="1"/>
-    <row r="953" ht="13.5" customHeight="1"/>
-    <row r="954" ht="13.5" customHeight="1"/>
-    <row r="955" ht="13.5" customHeight="1"/>
-    <row r="956" ht="13.5" customHeight="1"/>
-    <row r="957" ht="13.5" customHeight="1"/>
-    <row r="958" ht="13.5" customHeight="1"/>
-    <row r="959" ht="13.5" customHeight="1"/>
-    <row r="960" ht="13.5" customHeight="1"/>
-    <row r="961" ht="13.5" customHeight="1"/>
-    <row r="962" ht="13.5" customHeight="1"/>
-    <row r="963" ht="13.5" customHeight="1"/>
-    <row r="964" ht="13.5" customHeight="1"/>
-    <row r="965" ht="13.5" customHeight="1"/>
-    <row r="966" ht="13.5" customHeight="1"/>
-    <row r="967" ht="13.5" customHeight="1"/>
-    <row r="968" ht="13.5" customHeight="1"/>
-    <row r="969" ht="13.5" customHeight="1"/>
-    <row r="970" ht="13.5" customHeight="1"/>
-    <row r="971" ht="13.5" customHeight="1"/>
-    <row r="972" ht="13.5" customHeight="1"/>
-    <row r="973" ht="13.5" customHeight="1"/>
-    <row r="974" ht="13.5" customHeight="1"/>
-    <row r="975" ht="13.5" customHeight="1"/>
-    <row r="976" ht="13.5" customHeight="1"/>
-    <row r="977" ht="13.5" customHeight="1"/>
-    <row r="978" ht="13.5" customHeight="1"/>
-    <row r="979" ht="13.5" customHeight="1"/>
-    <row r="980" ht="13.5" customHeight="1"/>
-    <row r="981" ht="13.5" customHeight="1"/>
-    <row r="982" ht="13.5" customHeight="1"/>
-    <row r="983" ht="13.5" customHeight="1"/>
-    <row r="984" ht="13.5" customHeight="1"/>
-    <row r="985" ht="13.5" customHeight="1"/>
-    <row r="986" ht="13.5" customHeight="1"/>
-    <row r="987" ht="13.5" customHeight="1"/>
-    <row r="988" ht="13.5" customHeight="1"/>
-    <row r="989" ht="13.5" customHeight="1"/>
-    <row r="990" ht="13.5" customHeight="1"/>
-    <row r="991" ht="13.5" customHeight="1"/>
-    <row r="992" ht="13.5" customHeight="1"/>
-    <row r="993" ht="13.5" customHeight="1"/>
-    <row r="994" ht="13.5" customHeight="1"/>
-    <row r="995" ht="13.5" customHeight="1"/>
-    <row r="996" ht="13.5" customHeight="1"/>
-    <row r="997" ht="13.5" customHeight="1"/>
-    <row r="998" ht="13.5" customHeight="1"/>
-    <row r="999" ht="13.5" customHeight="1"/>
-    <row r="1000" ht="13.5" customHeight="1"/>
-    <row r="1001" ht="13.5" customHeight="1"/>
-    <row r="1002" ht="13.5" customHeight="1"/>
-    <row r="1003" ht="13.5" customHeight="1"/>
-    <row r="1004" ht="13.5" customHeight="1"/>
-    <row r="1005" ht="13.5" customHeight="1"/>
-    <row r="1006" ht="13.5" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1020"/>
   <sheetViews>
@@ -4364,12 +2392,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694935FF-5D2C-4930-BEB7-195D8DD864DD}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4406,10 +2434,10 @@
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4417,10 +2445,10 @@
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4431,7 +2459,7 @@
       <c r="B4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4455,13 +2483,13 @@
       <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -4478,7 +2506,7 @@
       <c r="B9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4497,7 +2525,7 @@
       <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4522,7 +2550,7 @@
       <c r="B13" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -4555,7 +2583,7 @@
       <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -4590,7 +2618,7 @@
       <c r="B18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>139</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -4604,7 +2632,7 @@
       <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -4701,11 +2729,11 @@
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>230</v>
+      <c r="C24" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4721,393 +2749,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA299A5-3E2F-4ACE-990F-4B04208826C9}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
@@ -5148,7 +2804,7 @@
         <v>156</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -5222,7 +2878,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>160</v>
@@ -5269,10 +2925,10 @@
         <v>89</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>155</v>
@@ -5308,13 +2964,13 @@
         <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
@@ -5348,7 +3004,7 @@
         <v>153</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
@@ -5356,13 +3012,13 @@
         <v>103</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
@@ -5386,12 +3042,12 @@
       <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>154</v>
@@ -5441,13 +3097,13 @@
         <v>114</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
@@ -6444,11 +4100,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -7190,7 +4846,7 @@
     <row r="67" spans="1:3" ht="13.5" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
@@ -7199,7 +4855,7 @@
     <row r="68" spans="1:3" ht="13.5" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -7208,7 +4864,7 @@
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -7217,7 +4873,7 @@
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -7226,7 +4882,7 @@
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -7235,7 +4891,7 @@
     <row r="72" spans="1:3" ht="13.5" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
@@ -7244,7 +4900,7 @@
     <row r="73" spans="1:3" ht="13.5" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -7253,7 +4909,7 @@
     <row r="74" spans="1:3" ht="13.5" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
@@ -7280,7 +4936,7 @@
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C77" s="4">
         <v>1.5</v>
@@ -7289,7 +4945,7 @@
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="4">
         <v>1.5</v>
@@ -7298,7 +4954,7 @@
     <row r="79" spans="1:3" ht="13.5" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C79" s="4">
         <v>1.5</v>
@@ -7307,7 +4963,7 @@
     <row r="80" spans="1:3" ht="13.5" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C80" s="4">
         <v>1.5</v>
@@ -7316,7 +4972,7 @@
     <row r="81" spans="1:3" ht="13.5" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C81" s="4">
         <v>1.5</v>
@@ -7325,7 +4981,7 @@
     <row r="82" spans="1:3" ht="13.5" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4">
         <v>1.5</v>
@@ -7334,7 +4990,7 @@
     <row r="83" spans="1:3" ht="13.5" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C83" s="4">
         <v>1.5</v>
@@ -7343,7 +4999,7 @@
     <row r="84" spans="1:3" ht="13.5" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" s="4">
         <v>1.5</v>
@@ -7370,7 +5026,7 @@
     <row r="87" spans="1:3" ht="13.5" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
@@ -7379,7 +5035,7 @@
     <row r="88" spans="1:3" ht="13.5" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
@@ -7397,7 +5053,7 @@
     <row r="90" spans="1:3" ht="13.5" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C90" s="4">
         <v>3</v>
@@ -7406,7 +5062,7 @@
     <row r="91" spans="1:3" ht="13.5" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
@@ -7415,7 +5071,7 @@
     <row r="92" spans="1:3" ht="13.5" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -7433,7 +5089,7 @@
     <row r="94" spans="1:3" ht="13.5" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
@@ -7442,7 +5098,7 @@
     <row r="95" spans="1:3" ht="13.5" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
@@ -7451,7 +5107,7 @@
     <row r="96" spans="1:3" ht="13.5" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C96" s="7">
         <v>3</v>
@@ -7460,7 +5116,7 @@
     <row r="97" spans="1:3" ht="13.5" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C97" s="8">
         <v>3</v>
@@ -7469,7 +5125,7 @@
     <row r="98" spans="1:3" ht="13.5" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C98" s="7">
         <v>3</v>
@@ -7478,7 +5134,7 @@
     <row r="99" spans="1:3" ht="13.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C99" s="7">
         <v>3</v>
@@ -7487,7 +5143,7 @@
     <row r="100" spans="1:3" ht="13.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C100" s="7">
         <v>3</v>
@@ -7496,7 +5152,7 @@
     <row r="101" spans="1:3" ht="13.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C101" s="7">
         <v>3</v>
@@ -7505,7 +5161,7 @@
     <row r="102" spans="1:3" ht="13.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C102" s="7">
         <v>3</v>
@@ -7514,7 +5170,7 @@
     <row r="103" spans="1:3" ht="13.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C103" s="7">
         <v>3</v>
@@ -7523,7 +5179,7 @@
     <row r="104" spans="1:3" ht="13.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C104" s="7">
         <v>3</v>
@@ -7532,7 +5188,7 @@
     <row r="105" spans="1:3" ht="13.5" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C105" s="7">
         <v>3</v>
@@ -7541,7 +5197,7 @@
     <row r="106" spans="1:3" ht="13.5" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C106" s="7">
         <v>1.5</v>
@@ -7550,7 +5206,7 @@
     <row r="107" spans="1:3" ht="13.5" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C107" s="7">
         <v>1.5</v>
@@ -7559,7 +5215,7 @@
     <row r="108" spans="1:3" ht="13.5" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C108" s="7">
         <v>1.5</v>
@@ -7568,7 +5224,7 @@
     <row r="109" spans="1:3" ht="13.5" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C109" s="7">
         <v>1.5</v>
@@ -7577,7 +5233,7 @@
     <row r="110" spans="1:3" ht="13.5" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C110" s="7">
         <v>1.5</v>
@@ -7586,7 +5242,7 @@
     <row r="111" spans="1:3" ht="13.5" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C111" s="7">
         <v>1.5</v>
@@ -7595,7 +5251,7 @@
     <row r="112" spans="1:3" ht="13.5" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C112" s="7">
         <v>1.5</v>
@@ -7604,7 +5260,7 @@
     <row r="113" spans="1:3" ht="13.5" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C113" s="7">
         <v>1.5</v>
@@ -7613,7 +5269,7 @@
     <row r="114" spans="1:3" ht="13.5" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C114" s="7">
         <v>1.5</v>
@@ -7622,7 +5278,7 @@
     <row r="115" spans="1:3" ht="13.5" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C115" s="7">
         <v>1.5</v>
@@ -7631,7 +5287,7 @@
     <row r="116" spans="1:3" ht="13.5" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116" s="7">
         <v>3</v>
@@ -7640,7 +5296,7 @@
     <row r="117" spans="1:3" ht="13.5" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C117" s="7">
         <v>3</v>
@@ -7649,7 +5305,7 @@
     <row r="118" spans="1:3" ht="13.5" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C118" s="7">
         <v>3</v>
@@ -7658,7 +5314,7 @@
     <row r="119" spans="1:3" ht="13.5" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C119" s="7">
         <v>3</v>
@@ -7667,7 +5323,7 @@
     <row r="120" spans="1:3" ht="13.5" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C120" s="7">
         <v>3</v>
@@ -7676,7 +5332,7 @@
     <row r="121" spans="1:3" ht="13.5" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C121" s="7">
         <v>3</v>
@@ -7685,7 +5341,7 @@
     <row r="122" spans="1:3" ht="13.5" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C122" s="7">
         <v>3</v>
@@ -7694,7 +5350,7 @@
     <row r="123" spans="1:3" ht="13.5" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C123" s="7">
         <v>3</v>
@@ -7703,7 +5359,7 @@
     <row r="124" spans="1:3" ht="13.5" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C124" s="7">
         <v>3</v>
@@ -7712,7 +5368,7 @@
     <row r="125" spans="1:3" ht="13.5" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C125" s="7">
         <v>3</v>
@@ -7721,7 +5377,7 @@
     <row r="126" spans="1:3" ht="13.5" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C126" s="7">
         <v>3</v>
@@ -7730,7 +5386,7 @@
     <row r="127" spans="1:3" ht="13.5" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C127" s="7">
         <v>3</v>
@@ -7739,7 +5395,7 @@
     <row r="128" spans="1:3" ht="13.5" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C128" s="7">
         <v>3</v>
@@ -8631,1177 +6287,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="26" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
 </file>